--- a/data/trans_dic/P16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Edad-trans_dic.xlsx
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,34</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,85</t>
+          <t>0,22; 1,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,3</t>
+          <t>0,36; 3,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,51</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,86</t>
+          <t>0,42; 1,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,55</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,29</t>
+          <t>0,93; 4,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,32</t>
+          <t>1,92; 8,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,0</t>
+          <t>0,41; 4,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,83</t>
+          <t>1,61; 4,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,39</t>
+          <t>0,37; 2,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 9,18</t>
+          <t>1,0; 9,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,08</t>
+          <t>0,59; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 27,39</t>
+          <t>10,31; 27,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,48</t>
+          <t>2,03; 12,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,45</t>
+          <t>6,63; 15,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,26</t>
+          <t>1,59; 6,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,37</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,44; 41,76</t>
+          <t>20,69; 42,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 15,85</t>
+          <t>3,35; 15,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,54</t>
+          <t>0,0; 13,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,79; 58,7</t>
+          <t>34,93; 59,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 22,13</t>
+          <t>1,83; 22,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,54</t>
+          <t>0,75; 6,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,13; 46,77</t>
+          <t>30,22; 46,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 14,87</t>
+          <t>3,84; 14,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,37</t>
+          <t>0,04; 0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,04</t>
+          <t>1,59; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,26</t>
+          <t>0,4; 1,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,77</t>
+          <t>0,08; 0,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,24</t>
+          <t>4,34; 7,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,2</t>
+          <t>0,67; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,44</t>
+          <t>0,08; 0,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,32</t>
+          <t>2,92; 4,38</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,38</t>
+          <t>0,65; 1,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P16A98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A98-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,94</t>
+          <t>0,21; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,24</t>
+          <t>0,36; 3,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,92</t>
+          <t>0,43; 2,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,06</t>
+          <t>0,68; 3,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,41</t>
+          <t>1,97; 8,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,05</t>
+          <t>0,41; 4,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,53</t>
+          <t>1,54; 4,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,37</t>
+          <t>0,37; 2,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,35</t>
+          <t>1,02; 9,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,51</t>
+          <t>0,59; 5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,31; 27,37</t>
+          <t>10,82; 27,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 12,24</t>
+          <t>2,01; 12,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,41</t>
+          <t>6,45; 15,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,61</t>
+          <t>1,62; 6,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 6,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,69; 42,84</t>
+          <t>19,54; 42,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,74</t>
+          <t>3,04; 15,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,53</t>
+          <t>0,0; 12,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,93; 59,21</t>
+          <t>34,67; 59,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 22,63</t>
+          <t>1,88; 20,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,81</t>
+          <t>0,63; 6,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,22; 46,63</t>
+          <t>31,19; 47,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,24</t>
+          <t>3,96; 13,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,42</t>
+          <t>0,04; 0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,01</t>
+          <t>1,55; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,22</t>
+          <t>0,42; 1,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,75</t>
+          <t>0,08; 0,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,27</t>
+          <t>4,32; 7,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,06</t>
+          <t>0,75; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,43</t>
+          <t>0,08; 0,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,38</t>
+          <t>2,88; 4,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,41</t>
+          <t>0,63; 1,4</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
